--- a/data_year/zb/文化/艺术表演团体基本情况/艺术表演团体剧团原创首演剧目数.xlsx
+++ b/data_year/zb/文化/艺术表演团体基本情况/艺术表演团体剧团原创首演剧目数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,324 +543,258 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="F2" t="n">
-        <v>369</v>
+        <v>246</v>
       </c>
       <c r="G2" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H2" t="n">
-        <v>1149</v>
+        <v>1088</v>
       </c>
       <c r="I2" t="n">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="J2" t="n">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="N2" t="n">
+        <v>96</v>
+      </c>
+      <c r="O2" t="n">
         <v>58</v>
       </c>
-      <c r="O2" t="n">
-        <v>71</v>
-      </c>
       <c r="P2" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q2" t="n">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="R2" t="n">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="S2" t="n">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="T2" t="n">
-        <v>1578</v>
+        <v>1443</v>
       </c>
       <c r="U2" t="n">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="V2" t="n">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="F3" t="n">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="G3" t="n">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H3" t="n">
-        <v>1088</v>
+        <v>1126</v>
       </c>
       <c r="I3" t="n">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="J3" t="n">
-        <v>719</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>664</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1107</v>
+      </c>
+      <c r="L3" t="n">
+        <v>481</v>
+      </c>
       <c r="M3" t="n">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="N3" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O3" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="P3" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="Q3" t="n">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="R3" t="n">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="S3" t="n">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="T3" t="n">
-        <v>1443</v>
+        <v>1588</v>
       </c>
       <c r="U3" t="n">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="V3" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E4" t="n">
-        <v>369</v>
+        <v>2351</v>
       </c>
       <c r="F4" t="n">
-        <v>393</v>
+        <v>2806</v>
       </c>
       <c r="G4" t="n">
-        <v>896</v>
+        <v>3221</v>
       </c>
       <c r="H4" t="n">
-        <v>1126</v>
+        <v>1578</v>
       </c>
       <c r="I4" t="n">
-        <v>394</v>
+        <v>499</v>
       </c>
       <c r="J4" t="n">
-        <v>664</v>
+        <v>1152</v>
       </c>
       <c r="K4" t="n">
-        <v>1107</v>
+        <v>947</v>
       </c>
       <c r="L4" t="n">
-        <v>481</v>
+        <v>3088</v>
       </c>
       <c r="M4" t="n">
-        <v>1195</v>
+        <v>1229</v>
       </c>
       <c r="N4" t="n">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="O4" t="n">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="P4" t="n">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="Q4" t="n">
-        <v>271</v>
+        <v>771</v>
       </c>
       <c r="R4" t="n">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="S4" t="n">
-        <v>195</v>
+        <v>971</v>
       </c>
       <c r="T4" t="n">
-        <v>1588</v>
+        <v>4035</v>
       </c>
       <c r="U4" t="n">
-        <v>143</v>
+        <v>396</v>
       </c>
       <c r="V4" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" t="n">
-        <v>93</v>
-      </c>
-      <c r="D5" t="n">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>2351</v>
+        <v>270</v>
       </c>
       <c r="F5" t="n">
-        <v>2806</v>
+        <v>69</v>
       </c>
       <c r="G5" t="n">
-        <v>3221</v>
+        <v>732</v>
       </c>
       <c r="H5" t="n">
-        <v>1578</v>
+        <v>996</v>
       </c>
       <c r="I5" t="n">
-        <v>499</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1152</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>947</v>
+        <v>831</v>
       </c>
       <c r="L5" t="n">
-        <v>3088</v>
+        <v>526</v>
       </c>
       <c r="M5" t="n">
-        <v>1229</v>
-      </c>
-      <c r="N5" t="n">
-        <v>164</v>
-      </c>
-      <c r="O5" t="n">
-        <v>311</v>
-      </c>
-      <c r="P5" t="n">
-        <v>177</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>771</v>
-      </c>
+        <v>1288</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>285</v>
-      </c>
-      <c r="S5" t="n">
-        <v>971</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>4035</v>
-      </c>
-      <c r="U5" t="n">
-        <v>396</v>
-      </c>
+        <v>1357</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>26</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>270</v>
-      </c>
-      <c r="F6" t="n">
-        <v>69</v>
-      </c>
-      <c r="G6" t="n">
-        <v>732</v>
-      </c>
-      <c r="H6" t="n">
-        <v>996</v>
-      </c>
-      <c r="I6" t="n">
-        <v>340</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>831</v>
-      </c>
-      <c r="L6" t="n">
-        <v>526</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1288</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>259</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>1357</v>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
         <v>91</v>
       </c>
     </row>
